--- a/DZ1/addrplan.xlsx
+++ b/DZ1/addrplan.xlsx
@@ -1,12 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="555">
   <si>
     <t>Subnet</t>
   </si>
@@ -46,12 +47,228 @@
     <t>192.168.1.254</t>
   </si>
   <si>
+    <t>10.12.140.0</t>
+  </si>
+  <si>
+    <t>/26</t>
+  </si>
+  <si>
+    <t>10.12.140.62</t>
+  </si>
+  <si>
+    <t>10.12.227.64</t>
+  </si>
+  <si>
+    <t>10.12.227.126</t>
+  </si>
+  <si>
+    <t>10.12.227.128</t>
+  </si>
+  <si>
+    <t>10.12.227.190</t>
+  </si>
+  <si>
+    <t>10.12.227.192</t>
+  </si>
+  <si>
+    <t>10.12.227.254</t>
+  </si>
+  <si>
+    <t>10.12.228.0</t>
+  </si>
+  <si>
+    <t>10.12.228.62</t>
+  </si>
+  <si>
+    <t>10.12.133.64</t>
+  </si>
+  <si>
+    <t>10.12.133.126</t>
+  </si>
+  <si>
+    <t>10.12.219.0</t>
+  </si>
+  <si>
+    <t>10.12.219.62</t>
+  </si>
+  <si>
+    <t>10.12.216.64</t>
+  </si>
+  <si>
+    <t>10.12.216.126</t>
+  </si>
+  <si>
+    <t>10.12.185.64</t>
+  </si>
+  <si>
+    <t>10.12.185.126</t>
+  </si>
+  <si>
+    <t>10.12.216.192</t>
+  </si>
+  <si>
+    <t>10.12.216.254</t>
+  </si>
+  <si>
+    <t>10.12.232.0</t>
+  </si>
+  <si>
+    <t>10.12.232.62</t>
+  </si>
+  <si>
+    <t>10.12.12.0</t>
+  </si>
+  <si>
+    <t>10.12.12.39</t>
+  </si>
+  <si>
+    <t>10.12.225.0</t>
+  </si>
+  <si>
+    <t>10.12.225.39</t>
+  </si>
+  <si>
+    <t>10.12.216.128</t>
+  </si>
+  <si>
+    <t>10.12.216.190</t>
+  </si>
+  <si>
+    <t>10.12.120.0</t>
+  </si>
+  <si>
+    <t>10.12.120.62</t>
+  </si>
+  <si>
+    <t>10.12.120.64</t>
+  </si>
+  <si>
+    <t>10.12.120.126</t>
+  </si>
+  <si>
+    <t>10.12.120.128</t>
+  </si>
+  <si>
+    <t>10.12.120.190</t>
+  </si>
+  <si>
+    <t>10.12.219.128</t>
+  </si>
+  <si>
+    <t>10.12.219.190</t>
+  </si>
+  <si>
+    <t>10.12.229.192</t>
+  </si>
+  <si>
+    <t>10.12.229.254</t>
+  </si>
+  <si>
+    <t>10.12.231.192</t>
+  </si>
+  <si>
+    <t>10.12.231.254</t>
+  </si>
+  <si>
+    <t>10.12.180.64</t>
+  </si>
+  <si>
+    <t>10.12.180.126</t>
+  </si>
+  <si>
+    <t>10.12.180.128</t>
+  </si>
+  <si>
+    <t>10.12.180.190</t>
+  </si>
+  <si>
+    <t>10.12.138.64</t>
+  </si>
+  <si>
+    <t>10.12.138.126</t>
+  </si>
+  <si>
+    <t>10.12.214.128</t>
+  </si>
+  <si>
+    <t>10.12.214.190</t>
+  </si>
+  <si>
+    <t>10.12.233.48</t>
+  </si>
+  <si>
+    <t>/28</t>
+  </si>
+  <si>
+    <t>10.12.233.62</t>
+  </si>
+  <si>
+    <t>10.12.233.32</t>
+  </si>
+  <si>
+    <t>10.12.233.46</t>
+  </si>
+  <si>
+    <t>10.12.236.224</t>
+  </si>
+  <si>
+    <t>10.12.236.238</t>
+  </si>
+  <si>
+    <t>10.12.236.208</t>
+  </si>
+  <si>
+    <t>10.12.236.222</t>
+  </si>
+  <si>
+    <t>10.12.214.192</t>
+  </si>
+  <si>
+    <t>10.12.214.254</t>
+  </si>
+  <si>
+    <t>10.12.222.128</t>
+  </si>
+  <si>
+    <t>10.12.222.190</t>
+  </si>
+  <si>
+    <t>10.12.168.0</t>
+  </si>
+  <si>
+    <t>/25</t>
+  </si>
+  <si>
+    <t>10.12.168.126</t>
+  </si>
+  <si>
+    <t>10.12.224.128</t>
+  </si>
+  <si>
+    <t>10.12.224.190</t>
+  </si>
+  <si>
+    <t>10.12.224.192</t>
+  </si>
+  <si>
+    <t>10.12.224.254</t>
+  </si>
+  <si>
+    <t>10.12.124.128</t>
+  </si>
+  <si>
+    <t>10.12.124.190</t>
+  </si>
+  <si>
+    <t>10.12.229.128</t>
+  </si>
+  <si>
+    <t>10.12.229.190</t>
+  </si>
+  <si>
     <t>10.12.229.64</t>
   </si>
   <si>
-    <t>/26</t>
-  </si>
-  <si>
     <t>10.12.229.126</t>
   </si>
   <si>
@@ -61,40 +278,871 @@
     <t>10.12.221.190</t>
   </si>
   <si>
-    <t>10.12.140.0</t>
-  </si>
-  <si>
-    <t>10.12.140.62</t>
-  </si>
-  <si>
-    <t>10.12.227.64</t>
-  </si>
-  <si>
-    <t>10.12.227.126</t>
-  </si>
-  <si>
-    <t>10.12.227.128</t>
-  </si>
-  <si>
-    <t>10.12.227.190</t>
-  </si>
-  <si>
-    <t>10.12.227.192</t>
-  </si>
-  <si>
-    <t>10.12.227.254</t>
-  </si>
-  <si>
-    <t>10.12.228.0</t>
-  </si>
-  <si>
-    <t>10.12.228.62</t>
-  </si>
-  <si>
-    <t>10.12.133.64</t>
-  </si>
-  <si>
-    <t>10.12.133.126</t>
+    <t>10.12.67.0</t>
+  </si>
+  <si>
+    <t>10.12.67.3</t>
+  </si>
+  <si>
+    <t>10.12.123.0</t>
+  </si>
+  <si>
+    <t>10.12.123.3</t>
+  </si>
+  <si>
+    <t>10.12.233.28</t>
+  </si>
+  <si>
+    <t>/30</t>
+  </si>
+  <si>
+    <t>10.12.233.30</t>
+  </si>
+  <si>
+    <t>10.12.233.20</t>
+  </si>
+  <si>
+    <t>10.12.233.22</t>
+  </si>
+  <si>
+    <t>10.12.233.24</t>
+  </si>
+  <si>
+    <t>10.12.233.26</t>
+  </si>
+  <si>
+    <t>10.12.233.16</t>
+  </si>
+  <si>
+    <t>10.12.233.18</t>
+  </si>
+  <si>
+    <t>10.12.222.8</t>
+  </si>
+  <si>
+    <t>/29</t>
+  </si>
+  <si>
+    <t>10.12.222.9</t>
+  </si>
+  <si>
+    <t>10.12.219.192</t>
+  </si>
+  <si>
+    <t>10.12.219.254</t>
+  </si>
+  <si>
+    <t>10.12.224.0</t>
+  </si>
+  <si>
+    <t>10.12.224.62</t>
+  </si>
+  <si>
+    <t>10.12.18.0</t>
+  </si>
+  <si>
+    <t>10.12.18.62</t>
+  </si>
+  <si>
+    <t>10.12.17.192</t>
+  </si>
+  <si>
+    <t>10.12.17.254</t>
+  </si>
+  <si>
+    <t>10.12.18.128</t>
+  </si>
+  <si>
+    <t>10.12.18.190</t>
+  </si>
+  <si>
+    <t>10.12.19.64</t>
+  </si>
+  <si>
+    <t>10.12.19.126</t>
+  </si>
+  <si>
+    <t>10.12.228.128</t>
+  </si>
+  <si>
+    <t>10.12.228.190</t>
+  </si>
+  <si>
+    <t>10.12.225.192</t>
+  </si>
+  <si>
+    <t>10.12.225.254</t>
+  </si>
+  <si>
+    <t>10.12.192.0</t>
+  </si>
+  <si>
+    <t>10.12.192.62</t>
+  </si>
+  <si>
+    <t>217.150.41.204</t>
+  </si>
+  <si>
+    <t>217.150.41.205</t>
+  </si>
+  <si>
+    <t>91.216.121.240</t>
+  </si>
+  <si>
+    <t>91.216.121.241</t>
+  </si>
+  <si>
+    <t>10.12.222.40</t>
+  </si>
+  <si>
+    <t>10.12.222.41</t>
+  </si>
+  <si>
+    <t>10.12.168.128</t>
+  </si>
+  <si>
+    <t>10.12.168.254</t>
+  </si>
+  <si>
+    <t>10.12.169.128</t>
+  </si>
+  <si>
+    <t>10.12.169.254</t>
+  </si>
+  <si>
+    <t>10.12.162.0</t>
+  </si>
+  <si>
+    <t>10.12.162.126</t>
+  </si>
+  <si>
+    <t>10.12.160.0</t>
+  </si>
+  <si>
+    <t>10.12.160.126</t>
+  </si>
+  <si>
+    <t>10.12.160.128</t>
+  </si>
+  <si>
+    <t>10.12.160.254</t>
+  </si>
+  <si>
+    <t>10.12.163.0</t>
+  </si>
+  <si>
+    <t>10.12.163.126</t>
+  </si>
+  <si>
+    <t>10.12.10.128</t>
+  </si>
+  <si>
+    <t>10.12.10.190</t>
+  </si>
+  <si>
+    <t>10.12.81.0</t>
+  </si>
+  <si>
+    <t>10.12.81.62</t>
+  </si>
+  <si>
+    <t>10.12.19.0</t>
+  </si>
+  <si>
+    <t>10.12.19.62</t>
+  </si>
+  <si>
+    <t>10.12.81.64</t>
+  </si>
+  <si>
+    <t>10.12.81.126</t>
+  </si>
+  <si>
+    <t>10.12.11.192</t>
+  </si>
+  <si>
+    <t>10.12.11.254</t>
+  </si>
+  <si>
+    <t>10.12.81.128</t>
+  </si>
+  <si>
+    <t>10.12.81.190</t>
+  </si>
+  <si>
+    <t>10.12.24.0</t>
+  </si>
+  <si>
+    <t>10.12.24.62</t>
+  </si>
+  <si>
+    <t>10.12.138.128</t>
+  </si>
+  <si>
+    <t>10.12.138.190</t>
+  </si>
+  <si>
+    <t>10.12.218.128</t>
+  </si>
+  <si>
+    <t>10.12.218.190</t>
+  </si>
+  <si>
+    <t>91.216.121.0</t>
+  </si>
+  <si>
+    <t>91.216.121.62</t>
+  </si>
+  <si>
+    <t>10.12.215.0</t>
+  </si>
+  <si>
+    <t>10.12.215.62</t>
+  </si>
+  <si>
+    <t>10.12.124.192</t>
+  </si>
+  <si>
+    <t>10.12.124.254</t>
+  </si>
+  <si>
+    <t>10.12.220.0</t>
+  </si>
+  <si>
+    <t>10.12.220.62</t>
+  </si>
+  <si>
+    <t>10.12.11.0</t>
+  </si>
+  <si>
+    <t>10.12.11.62</t>
+  </si>
+  <si>
+    <t>10.12.124.0</t>
+  </si>
+  <si>
+    <t>10.12.124.62</t>
+  </si>
+  <si>
+    <t>10.12.124.64</t>
+  </si>
+  <si>
+    <t>10.12.124.126</t>
+  </si>
+  <si>
+    <t>10.12.142.64</t>
+  </si>
+  <si>
+    <t>10.12.142.126</t>
+  </si>
+  <si>
+    <t>10.12.228.64</t>
+  </si>
+  <si>
+    <t>10.12.228.126</t>
+  </si>
+  <si>
+    <t>10.12.231.160</t>
+  </si>
+  <si>
+    <t>10.12.231.166</t>
+  </si>
+  <si>
+    <t>185.1.13.0</t>
+  </si>
+  <si>
+    <t>185.1.13.102</t>
+  </si>
+  <si>
+    <t>10.12.144.0</t>
+  </si>
+  <si>
+    <t>10.12.144.3</t>
+  </si>
+  <si>
+    <t>10.12.139.0</t>
+  </si>
+  <si>
+    <t>10.12.139.3</t>
+  </si>
+  <si>
+    <t>10.12.65.0</t>
+  </si>
+  <si>
+    <t>10.12.65.3</t>
+  </si>
+  <si>
+    <t>10.12.112.0</t>
+  </si>
+  <si>
+    <t>10.12.112.3</t>
+  </si>
+  <si>
+    <t>10.12.125.0</t>
+  </si>
+  <si>
+    <t>10.12.125.3</t>
+  </si>
+  <si>
+    <t>10.12.136.0</t>
+  </si>
+  <si>
+    <t>10.12.136.3</t>
+  </si>
+  <si>
+    <t>10.12.121.0</t>
+  </si>
+  <si>
+    <t>10.12.121.3</t>
+  </si>
+  <si>
+    <t>10.12.122.0</t>
+  </si>
+  <si>
+    <t>10.12.122.3</t>
+  </si>
+  <si>
+    <t>10.12.64.0</t>
+  </si>
+  <si>
+    <t>10.12.64.3</t>
+  </si>
+  <si>
+    <t>10.12.66.0</t>
+  </si>
+  <si>
+    <t>10.12.66.3</t>
+  </si>
+  <si>
+    <t>10.12.226.0</t>
+  </si>
+  <si>
+    <t>10.12.226.46</t>
+  </si>
+  <si>
+    <t>91.216.121.192</t>
+  </si>
+  <si>
+    <t>/27</t>
+  </si>
+  <si>
+    <t>91.216.121.193</t>
+  </si>
+  <si>
+    <t>10.12.184.0</t>
+  </si>
+  <si>
+    <t>10.12.184.3</t>
+  </si>
+  <si>
+    <t>10.12.127.0</t>
+  </si>
+  <si>
+    <t>10.12.127.3</t>
+  </si>
+  <si>
+    <t>192.168.10.0</t>
+  </si>
+  <si>
+    <t>192.168.10.3</t>
+  </si>
+  <si>
+    <t>10.12.126.0</t>
+  </si>
+  <si>
+    <t>10.12.126.3</t>
+  </si>
+  <si>
+    <t>10.12.141.0</t>
+  </si>
+  <si>
+    <t>10.12.141.3</t>
+  </si>
+  <si>
+    <t>172.27.0.0</t>
+  </si>
+  <si>
+    <t>/16</t>
+  </si>
+  <si>
+    <t>172.27.71.50</t>
+  </si>
+  <si>
+    <t>10.11.252.8</t>
+  </si>
+  <si>
+    <t>10.11.252.9</t>
+  </si>
+  <si>
+    <t>10.12.234.128</t>
+  </si>
+  <si>
+    <t>10.12.234.254</t>
+  </si>
+  <si>
+    <t>10.12.155.0</t>
+  </si>
+  <si>
+    <t>10.12.155.3</t>
+  </si>
+  <si>
+    <t>10.12.143.0</t>
+  </si>
+  <si>
+    <t>10.12.143.3</t>
+  </si>
+  <si>
+    <t>10.12.102.0</t>
+  </si>
+  <si>
+    <t>10.12.102.3</t>
+  </si>
+  <si>
+    <t>10.0.0.0</t>
+  </si>
+  <si>
+    <t>10.0.0.1</t>
+  </si>
+  <si>
+    <t>10.12.186.0</t>
+  </si>
+  <si>
+    <t>10.12.186.3</t>
+  </si>
+  <si>
+    <t>10.12.128.0</t>
+  </si>
+  <si>
+    <t>10.12.128.3</t>
+  </si>
+  <si>
+    <t>10.12.152.0</t>
+  </si>
+  <si>
+    <t>10.12.152.3</t>
+  </si>
+  <si>
+    <t>10.12.181.0</t>
+  </si>
+  <si>
+    <t>10.12.181.3</t>
+  </si>
+  <si>
+    <t>10.12.182.0</t>
+  </si>
+  <si>
+    <t>10.12.182.3</t>
+  </si>
+  <si>
+    <t>10.12.183.0</t>
+  </si>
+  <si>
+    <t>10.12.183.3</t>
+  </si>
+  <si>
+    <t>10.12.153.0</t>
+  </si>
+  <si>
+    <t>10.12.153.3</t>
+  </si>
+  <si>
+    <t>10.1.16.192</t>
+  </si>
+  <si>
+    <t>10.1.16.199</t>
+  </si>
+  <si>
+    <t>10.12.167.128</t>
+  </si>
+  <si>
+    <t>10.12.167.254</t>
+  </si>
+  <si>
+    <t>10.12.163.128</t>
+  </si>
+  <si>
+    <t>10.12.163.254</t>
+  </si>
+  <si>
+    <t>192.168.229.0</t>
+  </si>
+  <si>
+    <t>192.168.229.3</t>
+  </si>
+  <si>
+    <t>192.168.231.0</t>
+  </si>
+  <si>
+    <t>192.168.231.3</t>
+  </si>
+  <si>
+    <t>192.168.214.0</t>
+  </si>
+  <si>
+    <t>192.168.214.3</t>
+  </si>
+  <si>
+    <t>10.12.222.24</t>
+  </si>
+  <si>
+    <t>10.12.222.28</t>
+  </si>
+  <si>
+    <t>10.12.231.176</t>
+  </si>
+  <si>
+    <t>10.12.231.182</t>
+  </si>
+  <si>
+    <t>10.12.214.120</t>
+  </si>
+  <si>
+    <t>10.12.214.126</t>
+  </si>
+  <si>
+    <t>10.12.236.128</t>
+  </si>
+  <si>
+    <t>10.12.236.190</t>
+  </si>
+  <si>
+    <t>10.12.140.192</t>
+  </si>
+  <si>
+    <t>10.12.140.254</t>
+  </si>
+  <si>
+    <t>10.12.217.0</t>
+  </si>
+  <si>
+    <t>10.12.217.62</t>
+  </si>
+  <si>
+    <t>10.12.228.192</t>
+  </si>
+  <si>
+    <t>10.12.228.254</t>
+  </si>
+  <si>
+    <t>10.12.20.0</t>
+  </si>
+  <si>
+    <t>10.12.20.62</t>
+  </si>
+  <si>
+    <t>10.12.101.128</t>
+  </si>
+  <si>
+    <t>10.12.101.190</t>
+  </si>
+  <si>
+    <t>10.12.101.0</t>
+  </si>
+  <si>
+    <t>10.12.101.62</t>
+  </si>
+  <si>
+    <t>10.12.101.64</t>
+  </si>
+  <si>
+    <t>10.12.101.126</t>
+  </si>
+  <si>
+    <t>10.12.194.0</t>
+  </si>
+  <si>
+    <t>10.12.194.62</t>
+  </si>
+  <si>
+    <t>10.12.194.64</t>
+  </si>
+  <si>
+    <t>10.12.194.126</t>
+  </si>
+  <si>
+    <t>10.12.100.128</t>
+  </si>
+  <si>
+    <t>10.12.100.190</t>
+  </si>
+  <si>
+    <t>10.12.100.192</t>
+  </si>
+  <si>
+    <t>10.12.100.254</t>
+  </si>
+  <si>
+    <t>10.12.16.128</t>
+  </si>
+  <si>
+    <t>10.12.16.190</t>
+  </si>
+  <si>
+    <t>10.12.16.192</t>
+  </si>
+  <si>
+    <t>10.12.16.254</t>
+  </si>
+  <si>
+    <t>10.12.234.0</t>
+  </si>
+  <si>
+    <t>10.12.234.126</t>
+  </si>
+  <si>
+    <t>10.12.164.0</t>
+  </si>
+  <si>
+    <t>10.12.164.126</t>
+  </si>
+  <si>
+    <t>10.12.162.128</t>
+  </si>
+  <si>
+    <t>10.12.162.254</t>
+  </si>
+  <si>
+    <t>10.12.161.0</t>
+  </si>
+  <si>
+    <t>10.12.161.126</t>
+  </si>
+  <si>
+    <t>10.12.161.128</t>
+  </si>
+  <si>
+    <t>10.12.161.254</t>
+  </si>
+  <si>
+    <t>10.12.164.128</t>
+  </si>
+  <si>
+    <t>10.12.164.254</t>
+  </si>
+  <si>
+    <t>10.12.166.0</t>
+  </si>
+  <si>
+    <t>10.12.166.126</t>
+  </si>
+  <si>
+    <t>10.12.166.128</t>
+  </si>
+  <si>
+    <t>10.12.166.254</t>
+  </si>
+  <si>
+    <t>10.12.167.0</t>
+  </si>
+  <si>
+    <t>10.12.167.126</t>
+  </si>
+  <si>
+    <t>10.12.11.64</t>
+  </si>
+  <si>
+    <t>10.12.11.126</t>
+  </si>
+  <si>
+    <t>10.12.226.64</t>
+  </si>
+  <si>
+    <t>10.12.226.126</t>
+  </si>
+  <si>
+    <t>10.12.226.128</t>
+  </si>
+  <si>
+    <t>10.12.226.190</t>
+  </si>
+  <si>
+    <t>10.12.217.192</t>
+  </si>
+  <si>
+    <t>10.12.217.254</t>
+  </si>
+  <si>
+    <t>10.12.17.128</t>
+  </si>
+  <si>
+    <t>10.12.17.161</t>
+  </si>
+  <si>
+    <t>10.12.10.64</t>
+  </si>
+  <si>
+    <t>10.12.10.126</t>
+  </si>
+  <si>
+    <t>10.12.17.0</t>
+  </si>
+  <si>
+    <t>10.12.17.62</t>
+  </si>
+  <si>
+    <t>10.12.17.64</t>
+  </si>
+  <si>
+    <t>10.12.17.126</t>
+  </si>
+  <si>
+    <t>10.12.68.0</t>
+  </si>
+  <si>
+    <t>10.12.68.3</t>
+  </si>
+  <si>
+    <t>10.12.69.0</t>
+  </si>
+  <si>
+    <t>10.12.69.3</t>
+  </si>
+  <si>
+    <t>10.12.71.0</t>
+  </si>
+  <si>
+    <t>10.12.71.3</t>
+  </si>
+  <si>
+    <t>10.12.72.0</t>
+  </si>
+  <si>
+    <t>10.12.72.3</t>
+  </si>
+  <si>
+    <t>10.12.73.0</t>
+  </si>
+  <si>
+    <t>10.12.73.3</t>
+  </si>
+  <si>
+    <t>10.12.154.0</t>
+  </si>
+  <si>
+    <t>10.12.154.3</t>
+  </si>
+  <si>
+    <t>10.12.91.0</t>
+  </si>
+  <si>
+    <t>10.12.91.3</t>
+  </si>
+  <si>
+    <t>10.12.21.0</t>
+  </si>
+  <si>
+    <t>10.12.21.3</t>
+  </si>
+  <si>
+    <t>10.12.238.0</t>
+  </si>
+  <si>
+    <t>10.12.238.3</t>
+  </si>
+  <si>
+    <t>10.12.22.0</t>
+  </si>
+  <si>
+    <t>10.12.22.3</t>
+  </si>
+  <si>
+    <t>10.12.79.0</t>
+  </si>
+  <si>
+    <t>10.12.79.3</t>
+  </si>
+  <si>
+    <t>192.168.165.0</t>
+  </si>
+  <si>
+    <t>192.168.165.3</t>
+  </si>
+  <si>
+    <t>10.12.78.0</t>
+  </si>
+  <si>
+    <t>10.12.78.3</t>
+  </si>
+  <si>
+    <t>10.12.77.0</t>
+  </si>
+  <si>
+    <t>10.12.77.3</t>
+  </si>
+  <si>
+    <t>10.12.94.0</t>
+  </si>
+  <si>
+    <t>10.12.94.3</t>
+  </si>
+  <si>
+    <t>10.12.96.0</t>
+  </si>
+  <si>
+    <t>10.12.96.3</t>
+  </si>
+  <si>
+    <t>10.12.222.48</t>
+  </si>
+  <si>
+    <t>10.12.222.49</t>
+  </si>
+  <si>
+    <t>10.12.230.192</t>
+  </si>
+  <si>
+    <t>10.12.230.254</t>
+  </si>
+  <si>
+    <t>10.12.234.192</t>
+  </si>
+  <si>
+    <t>10.12.8.128</t>
+  </si>
+  <si>
+    <t>10.12.8.190</t>
+  </si>
+  <si>
+    <t>10.12.138.192</t>
+  </si>
+  <si>
+    <t>10.12.138.254</t>
+  </si>
+  <si>
+    <t>10.12.217.128</t>
+  </si>
+  <si>
+    <t>10.12.217.190</t>
+  </si>
+  <si>
+    <t>10.12.142.0</t>
+  </si>
+  <si>
+    <t>10.12.142.62</t>
+  </si>
+  <si>
+    <t>10.12.156.0</t>
+  </si>
+  <si>
+    <t>10.12.156.62</t>
+  </si>
+  <si>
+    <t>10.12.233.64</t>
+  </si>
+  <si>
+    <t>10.12.233.126</t>
+  </si>
+  <si>
+    <t>10.12.236.0</t>
+  </si>
+  <si>
+    <t>10.12.236.62</t>
+  </si>
+  <si>
+    <t>10.12.236.64</t>
+  </si>
+  <si>
+    <t>10.12.236.126</t>
   </si>
   <si>
     <t>10.12.229.0</t>
@@ -109,94 +1157,46 @@
     <t>10.12.180.62</t>
   </si>
   <si>
-    <t>10.12.138.64</t>
-  </si>
-  <si>
-    <t>10.12.138.126</t>
-  </si>
-  <si>
-    <t>10.12.12.0</t>
-  </si>
-  <si>
-    <t>10.12.12.39</t>
-  </si>
-  <si>
-    <t>10.12.225.0</t>
-  </si>
-  <si>
-    <t>10.12.225.39</t>
-  </si>
-  <si>
-    <t>10.12.124.128</t>
-  </si>
-  <si>
-    <t>10.12.124.190</t>
-  </si>
-  <si>
-    <t>10.12.216.128</t>
-  </si>
-  <si>
-    <t>10.12.216.190</t>
-  </si>
-  <si>
-    <t>10.12.120.0</t>
-  </si>
-  <si>
-    <t>10.12.120.62</t>
-  </si>
-  <si>
-    <t>10.12.120.64</t>
-  </si>
-  <si>
-    <t>10.12.120.126</t>
-  </si>
-  <si>
-    <t>10.12.120.128</t>
-  </si>
-  <si>
-    <t>10.12.120.190</t>
-  </si>
-  <si>
-    <t>10.12.216.64</t>
-  </si>
-  <si>
-    <t>10.12.216.126</t>
-  </si>
-  <si>
-    <t>10.12.185.64</t>
-  </si>
-  <si>
-    <t>10.12.185.126</t>
-  </si>
-  <si>
-    <t>10.12.216.192</t>
-  </si>
-  <si>
-    <t>10.12.216.254</t>
-  </si>
-  <si>
-    <t>10.12.219.128</t>
-  </si>
-  <si>
-    <t>10.12.219.190</t>
-  </si>
-  <si>
-    <t>10.12.229.192</t>
-  </si>
-  <si>
-    <t>10.12.229.254</t>
-  </si>
-  <si>
-    <t>10.12.140.192</t>
-  </si>
-  <si>
-    <t>10.12.140.254</t>
-  </si>
-  <si>
-    <t>10.12.217.0</t>
-  </si>
-  <si>
-    <t>10.12.217.62</t>
+    <t>10.12.142.128</t>
+  </si>
+  <si>
+    <t>10.12.142.190</t>
+  </si>
+  <si>
+    <t>10.12.8.0</t>
+  </si>
+  <si>
+    <t>10.12.8.62</t>
+  </si>
+  <si>
+    <t>10.12.10.192</t>
+  </si>
+  <si>
+    <t>10.12.10.254</t>
+  </si>
+  <si>
+    <t>10.12.185.0</t>
+  </si>
+  <si>
+    <t>10.12.185.62</t>
+  </si>
+  <si>
+    <t>10.12.224.64</t>
+  </si>
+  <si>
+    <t>10.12.224.126</t>
+  </si>
+  <si>
+    <t>10.12.232.64</t>
+  </si>
+  <si>
+    <t>10.12.232.126</t>
+  </si>
+  <si>
+    <t>10.12.232.128</t>
+  </si>
+  <si>
+    <t>10.12.232.190</t>
   </si>
   <si>
     <t>10.12.140.128</t>
@@ -211,58 +1211,379 @@
     <t>10.12.140.126</t>
   </si>
   <si>
-    <t>10.12.233.48</t>
-  </si>
-  <si>
-    <t>/28</t>
-  </si>
-  <si>
-    <t>10.12.233.62</t>
-  </si>
-  <si>
-    <t>10.12.233.32</t>
-  </si>
-  <si>
-    <t>10.12.233.46</t>
-  </si>
-  <si>
-    <t>10.12.236.224</t>
-  </si>
-  <si>
-    <t>10.12.236.238</t>
-  </si>
-  <si>
-    <t>10.12.236.208</t>
-  </si>
-  <si>
-    <t>10.12.236.222</t>
-  </si>
-  <si>
-    <t>10.12.180.64</t>
-  </si>
-  <si>
-    <t>10.12.180.126</t>
-  </si>
-  <si>
-    <t>10.12.180.128</t>
-  </si>
-  <si>
-    <t>10.12.180.190</t>
-  </si>
-  <si>
-    <t>10.12.234.128</t>
-  </si>
-  <si>
-    <t>/25</t>
-  </si>
-  <si>
-    <t>10.12.234.254</t>
-  </si>
-  <si>
-    <t>10.12.231.192</t>
-  </si>
-  <si>
-    <t>10.12.231.254</t>
+    <t>10.12.222.64</t>
+  </si>
+  <si>
+    <t>10.12.222.126</t>
+  </si>
+  <si>
+    <t>10.12.221.192</t>
+  </si>
+  <si>
+    <t>10.12.221.254</t>
+  </si>
+  <si>
+    <t>10.12.169.0</t>
+  </si>
+  <si>
+    <t>10.12.169.126</t>
+  </si>
+  <si>
+    <t>10.12.170.0</t>
+  </si>
+  <si>
+    <t>10.12.170.126</t>
+  </si>
+  <si>
+    <t>10.12.177.128</t>
+  </si>
+  <si>
+    <t>10.12.177.254</t>
+  </si>
+  <si>
+    <t>10.12.165.0</t>
+  </si>
+  <si>
+    <t>10.12.165.126</t>
+  </si>
+  <si>
+    <t>10.12.170.128</t>
+  </si>
+  <si>
+    <t>10.12.170.254</t>
+  </si>
+  <si>
+    <t>10.12.177.0</t>
+  </si>
+  <si>
+    <t>10.12.177.126</t>
+  </si>
+  <si>
+    <t>10.12.165.128</t>
+  </si>
+  <si>
+    <t>10.12.165.254</t>
+  </si>
+  <si>
+    <t>10.12.230.0</t>
+  </si>
+  <si>
+    <t>10.12.230.126</t>
+  </si>
+  <si>
+    <t>10.12.231.0</t>
+  </si>
+  <si>
+    <t>10.12.231.126</t>
+  </si>
+  <si>
+    <t>10.12.233.128</t>
+  </si>
+  <si>
+    <t>10.12.233.254</t>
+  </si>
+  <si>
+    <t>10.12.0.0</t>
+  </si>
+  <si>
+    <t>/23</t>
+  </si>
+  <si>
+    <t>10.12.0.247</t>
+  </si>
+  <si>
+    <t>10.12.218.192</t>
+  </si>
+  <si>
+    <t>10.12.218.254</t>
+  </si>
+  <si>
+    <t>10.12.215.64</t>
+  </si>
+  <si>
+    <t>10.12.215.126</t>
+  </si>
+  <si>
+    <t>10.12.101.192</t>
+  </si>
+  <si>
+    <t>10.12.101.254</t>
+  </si>
+  <si>
+    <t>10.12.218.0</t>
+  </si>
+  <si>
+    <t>10.12.218.62</t>
+  </si>
+  <si>
+    <t>10.12.18.64</t>
+  </si>
+  <si>
+    <t>10.12.18.126</t>
+  </si>
+  <si>
+    <t>10.12.23.0</t>
+  </si>
+  <si>
+    <t>10.12.23.62</t>
+  </si>
+  <si>
+    <t>10.12.10.0</t>
+  </si>
+  <si>
+    <t>10.12.10.62</t>
+  </si>
+  <si>
+    <t>10.12.18.192</t>
+  </si>
+  <si>
+    <t>10.12.18.254</t>
+  </si>
+  <si>
+    <t>10.12.231.184</t>
+  </si>
+  <si>
+    <t>10.12.231.190</t>
+  </si>
+  <si>
+    <t>10.12.231.168</t>
+  </si>
+  <si>
+    <t>10.12.231.174</t>
+  </si>
+  <si>
+    <t>10.12.13.0</t>
+  </si>
+  <si>
+    <t>10.12.13.3</t>
+  </si>
+  <si>
+    <t>10.12.95.0</t>
+  </si>
+  <si>
+    <t>10.12.95.3</t>
+  </si>
+  <si>
+    <t>10.12.222.16</t>
+  </si>
+  <si>
+    <t>10.12.222.22</t>
+  </si>
+  <si>
+    <t>192.168.167.0</t>
+  </si>
+  <si>
+    <t>192.168.167.3</t>
+  </si>
+  <si>
+    <t>192.168.2.248</t>
+  </si>
+  <si>
+    <t>192.168.2.254</t>
+  </si>
+  <si>
+    <t>10.12.222.32</t>
+  </si>
+  <si>
+    <t>10.12.222.38</t>
+  </si>
+  <si>
+    <t>10.12.87.0</t>
+  </si>
+  <si>
+    <t>10.12.87.3</t>
+  </si>
+  <si>
+    <t>10.12.80.0</t>
+  </si>
+  <si>
+    <t>10.12.80.3</t>
+  </si>
+  <si>
+    <t>192.168.226.0</t>
+  </si>
+  <si>
+    <t>192.168.226.3</t>
+  </si>
+  <si>
+    <t>192.168.227.0</t>
+  </si>
+  <si>
+    <t>192.168.227.3</t>
+  </si>
+  <si>
+    <t>192.168.228.0</t>
+  </si>
+  <si>
+    <t>192.168.228.3</t>
+  </si>
+  <si>
+    <t>172.16.0.0</t>
+  </si>
+  <si>
+    <t>172.16.65.3</t>
+  </si>
+  <si>
+    <t>185.13.0.140</t>
+  </si>
+  <si>
+    <t>185.13.0.142</t>
+  </si>
+  <si>
+    <t>10.12.222.56</t>
+  </si>
+  <si>
+    <t>10.12.222.57</t>
+  </si>
+  <si>
+    <t>10.12.216.0</t>
+  </si>
+  <si>
+    <t>10.12.216.62</t>
+  </si>
+  <si>
+    <t>10.12.218.64</t>
+  </si>
+  <si>
+    <t>10.12.218.126</t>
+  </si>
+  <si>
+    <t>10.12.192.64</t>
+  </si>
+  <si>
+    <t>10.12.192.126</t>
+  </si>
+  <si>
+    <t>10.12.115.0</t>
+  </si>
+  <si>
+    <t>10.12.115.62</t>
+  </si>
+  <si>
+    <t>10.12.115.64</t>
+  </si>
+  <si>
+    <t>10.12.115.126</t>
+  </si>
+  <si>
+    <t>10.12.115.128</t>
+  </si>
+  <si>
+    <t>10.12.115.190</t>
+  </si>
+  <si>
+    <t>10.12.115.192</t>
+  </si>
+  <si>
+    <t>10.12.115.254</t>
+  </si>
+  <si>
+    <t>10.12.215.192</t>
+  </si>
+  <si>
+    <t>10.12.215.254</t>
+  </si>
+  <si>
+    <t>10.12.116.0</t>
+  </si>
+  <si>
+    <t>10.12.116.254</t>
+  </si>
+  <si>
+    <t>10.12.118.0</t>
+  </si>
+  <si>
+    <t>10.12.118.254</t>
+  </si>
+  <si>
+    <t>10.12.114.0</t>
+  </si>
+  <si>
+    <t>10.12.114.254</t>
+  </si>
+  <si>
+    <t>217.117.187.0</t>
+  </si>
+  <si>
+    <t>217.117.187.30</t>
+  </si>
+  <si>
+    <t>10.12.16.96</t>
+  </si>
+  <si>
+    <t>10.12.16.110</t>
+  </si>
+  <si>
+    <t>10.12.221.64</t>
+  </si>
+  <si>
+    <t>10.12.221.78</t>
+  </si>
+  <si>
+    <t>10.12.111.0</t>
+  </si>
+  <si>
+    <t>10.12.111.3</t>
+  </si>
+  <si>
+    <t>192.168.213.0</t>
+  </si>
+  <si>
+    <t>192.168.213.3</t>
+  </si>
+  <si>
+    <t>192.168.215.0</t>
+  </si>
+  <si>
+    <t>192.168.215.3</t>
+  </si>
+  <si>
+    <t>10.12.119.0</t>
+  </si>
+  <si>
+    <t>10.12.119.3</t>
+  </si>
+  <si>
+    <t>10.12.171.0</t>
+  </si>
+  <si>
+    <t>10.12.171.3</t>
+  </si>
+  <si>
+    <t>10.12.172.0</t>
+  </si>
+  <si>
+    <t>10.12.172.3</t>
+  </si>
+  <si>
+    <t>10.12.173.0</t>
+  </si>
+  <si>
+    <t>10.12.173.3</t>
+  </si>
+  <si>
+    <t>10.12.174.0</t>
+  </si>
+  <si>
+    <t>10.12.174.3</t>
+  </si>
+  <si>
+    <t>10.12.175.0</t>
+  </si>
+  <si>
+    <t>10.12.175.3</t>
+  </si>
+  <si>
+    <t>10.12.176.0</t>
+  </si>
+  <si>
+    <t>10.12.176.3</t>
+  </si>
+  <si>
+    <t>10.12.148.0</t>
+  </si>
+  <si>
+    <t>10.12.148.3</t>
   </si>
   <si>
     <t>10.12.8.64</t>
@@ -277,820 +1598,34 @@
     <t>10.12.133.62</t>
   </si>
   <si>
-    <t>10.12.67.0</t>
-  </si>
-  <si>
-    <t>10.12.67.3</t>
-  </si>
-  <si>
-    <t>10.12.123.0</t>
-  </si>
-  <si>
-    <t>10.12.123.3</t>
-  </si>
-  <si>
-    <t>10.12.233.28</t>
-  </si>
-  <si>
-    <t>/30</t>
-  </si>
-  <si>
-    <t>10.12.233.30</t>
-  </si>
-  <si>
-    <t>10.12.233.20</t>
-  </si>
-  <si>
-    <t>10.12.233.22</t>
-  </si>
-  <si>
-    <t>10.12.233.24</t>
-  </si>
-  <si>
-    <t>10.12.233.26</t>
-  </si>
-  <si>
-    <t>10.12.233.16</t>
-  </si>
-  <si>
-    <t>10.12.233.18</t>
-  </si>
-  <si>
-    <t>10.12.222.8</t>
-  </si>
-  <si>
-    <t>/29</t>
-  </si>
-  <si>
-    <t>10.12.222.9</t>
-  </si>
-  <si>
-    <t>10.12.101.192</t>
-  </si>
-  <si>
-    <t>10.12.101.254</t>
-  </si>
-  <si>
-    <t>10.12.218.0</t>
-  </si>
-  <si>
-    <t>10.12.218.62</t>
-  </si>
-  <si>
-    <t>10.12.101.128</t>
-  </si>
-  <si>
-    <t>10.12.101.190</t>
-  </si>
-  <si>
-    <t>10.12.101.0</t>
-  </si>
-  <si>
-    <t>10.12.101.62</t>
-  </si>
-  <si>
-    <t>10.12.101.64</t>
-  </si>
-  <si>
-    <t>10.12.101.126</t>
-  </si>
-  <si>
-    <t>10.12.194.0</t>
-  </si>
-  <si>
-    <t>10.12.194.62</t>
-  </si>
-  <si>
-    <t>10.12.194.64</t>
-  </si>
-  <si>
-    <t>10.12.194.126</t>
-  </si>
-  <si>
-    <t>10.12.100.128</t>
-  </si>
-  <si>
-    <t>10.12.100.190</t>
-  </si>
-  <si>
-    <t>10.12.230.128</t>
-  </si>
-  <si>
-    <t>10.12.230.254</t>
-  </si>
-  <si>
-    <t>10.12.236.64</t>
-  </si>
-  <si>
-    <t>10.12.236.126</t>
-  </si>
-  <si>
-    <t>10.12.222.40</t>
-  </si>
-  <si>
-    <t>10.12.222.41</t>
-  </si>
-  <si>
-    <t>10.12.167.0</t>
-  </si>
-  <si>
-    <t>10.12.167.126</t>
-  </si>
-  <si>
-    <t>10.12.230.0</t>
-  </si>
-  <si>
-    <t>10.12.230.126</t>
-  </si>
-  <si>
-    <t>10.12.167.128</t>
-  </si>
-  <si>
-    <t>10.12.167.254</t>
-  </si>
-  <si>
-    <t>10.12.168.128</t>
-  </si>
-  <si>
-    <t>10.12.168.254</t>
-  </si>
-  <si>
-    <t>10.12.169.128</t>
-  </si>
-  <si>
-    <t>10.12.169.254</t>
-  </si>
-  <si>
-    <t>10.12.162.0</t>
-  </si>
-  <si>
-    <t>10.12.162.126</t>
-  </si>
-  <si>
-    <t>10.12.16.192</t>
-  </si>
-  <si>
-    <t>10.12.16.254</t>
-  </si>
-  <si>
-    <t>10.12.10.64</t>
-  </si>
-  <si>
-    <t>10.12.10.126</t>
-  </si>
-  <si>
-    <t>10.12.17.0</t>
-  </si>
-  <si>
-    <t>10.12.17.62</t>
-  </si>
-  <si>
-    <t>10.12.17.64</t>
-  </si>
-  <si>
-    <t>10.12.17.126</t>
-  </si>
-  <si>
-    <t>10.12.219.192</t>
-  </si>
-  <si>
-    <t>10.12.219.254</t>
-  </si>
-  <si>
-    <t>10.12.224.0</t>
-  </si>
-  <si>
-    <t>10.12.224.62</t>
-  </si>
-  <si>
-    <t>10.12.18.0</t>
-  </si>
-  <si>
-    <t>10.12.18.62</t>
-  </si>
-  <si>
-    <t>10.12.17.192</t>
-  </si>
-  <si>
-    <t>10.12.17.254</t>
-  </si>
-  <si>
-    <t>10.12.18.64</t>
-  </si>
-  <si>
-    <t>10.12.18.126</t>
-  </si>
-  <si>
-    <t>10.12.215.0</t>
-  </si>
-  <si>
-    <t>10.12.215.62</t>
-  </si>
-  <si>
-    <t>91.216.121.0</t>
-  </si>
-  <si>
-    <t>91.216.121.62</t>
-  </si>
-  <si>
-    <t>10.12.124.192</t>
-  </si>
-  <si>
-    <t>10.12.124.254</t>
-  </si>
-  <si>
-    <t>10.12.220.0</t>
-  </si>
-  <si>
-    <t>10.12.220.62</t>
-  </si>
-  <si>
-    <t>10.12.11.0</t>
-  </si>
-  <si>
-    <t>10.12.11.62</t>
-  </si>
-  <si>
-    <t>10.12.124.0</t>
-  </si>
-  <si>
-    <t>10.12.124.62</t>
-  </si>
-  <si>
-    <t>10.12.124.64</t>
-  </si>
-  <si>
-    <t>10.12.124.126</t>
-  </si>
-  <si>
-    <t>10.12.142.64</t>
-  </si>
-  <si>
-    <t>10.12.142.126</t>
-  </si>
-  <si>
-    <t>10.12.228.64</t>
-  </si>
-  <si>
-    <t>10.12.228.126</t>
-  </si>
-  <si>
-    <t>10.12.228.128</t>
-  </si>
-  <si>
-    <t>10.12.228.190</t>
-  </si>
-  <si>
-    <t>10.12.231.160</t>
-  </si>
-  <si>
-    <t>10.12.231.166</t>
-  </si>
-  <si>
-    <t>185.1.13.0</t>
-  </si>
-  <si>
-    <t>185.1.13.102</t>
-  </si>
-  <si>
-    <t>10.12.144.0</t>
-  </si>
-  <si>
-    <t>10.12.144.3</t>
-  </si>
-  <si>
-    <t>10.12.139.0</t>
-  </si>
-  <si>
-    <t>10.12.139.3</t>
-  </si>
-  <si>
-    <t>10.12.65.0</t>
-  </si>
-  <si>
-    <t>10.12.65.3</t>
-  </si>
-  <si>
-    <t>10.12.112.0</t>
-  </si>
-  <si>
-    <t>10.12.112.3</t>
-  </si>
-  <si>
-    <t>10.12.125.0</t>
-  </si>
-  <si>
-    <t>10.12.125.3</t>
-  </si>
-  <si>
-    <t>10.12.136.0</t>
-  </si>
-  <si>
-    <t>10.12.136.3</t>
-  </si>
-  <si>
-    <t>10.12.121.0</t>
-  </si>
-  <si>
-    <t>10.12.121.3</t>
-  </si>
-  <si>
-    <t>10.12.122.0</t>
-  </si>
-  <si>
-    <t>10.12.122.3</t>
-  </si>
-  <si>
-    <t>10.12.64.0</t>
-  </si>
-  <si>
-    <t>10.12.64.3</t>
-  </si>
-  <si>
-    <t>10.12.66.0</t>
-  </si>
-  <si>
-    <t>10.12.66.3</t>
-  </si>
-  <si>
-    <t>10.12.226.0</t>
-  </si>
-  <si>
-    <t>10.12.226.46</t>
-  </si>
-  <si>
-    <t>10.12.222.32</t>
-  </si>
-  <si>
-    <t>10.12.222.36</t>
-  </si>
-  <si>
-    <t>10.12.186.0</t>
-  </si>
-  <si>
-    <t>10.12.186.3</t>
-  </si>
-  <si>
-    <t>10.12.128.0</t>
-  </si>
-  <si>
-    <t>10.12.128.3</t>
-  </si>
-  <si>
-    <t>10.12.152.0</t>
-  </si>
-  <si>
-    <t>10.12.152.3</t>
-  </si>
-  <si>
-    <t>10.12.153.0</t>
-  </si>
-  <si>
-    <t>10.12.153.3</t>
-  </si>
-  <si>
-    <t>10.12.154.0</t>
-  </si>
-  <si>
-    <t>10.12.154.3</t>
-  </si>
-  <si>
-    <t>10.12.111.0</t>
-  </si>
-  <si>
-    <t>10.12.111.3</t>
-  </si>
-  <si>
-    <t>192.168.213.0</t>
-  </si>
-  <si>
-    <t>192.168.213.3</t>
-  </si>
-  <si>
-    <t>192.168.215.0</t>
-  </si>
-  <si>
-    <t>192.168.215.3</t>
-  </si>
-  <si>
-    <t>192.168.231.0</t>
-  </si>
-  <si>
-    <t>192.168.231.3</t>
-  </si>
-  <si>
-    <t>10.12.224.64</t>
-  </si>
-  <si>
-    <t>10.12.224.126</t>
-  </si>
-  <si>
-    <t>172.27.0.0</t>
-  </si>
-  <si>
-    <t>/16</t>
-  </si>
-  <si>
-    <t>172.27.71.50</t>
-  </si>
-  <si>
-    <t>10.11.252.8</t>
-  </si>
-  <si>
-    <t>10.11.252.9</t>
-  </si>
-  <si>
-    <t>10.12.231.176</t>
-  </si>
-  <si>
-    <t>10.12.231.182</t>
-  </si>
-  <si>
-    <t>10.12.234.0</t>
-  </si>
-  <si>
-    <t>10.12.234.126</t>
-  </si>
-  <si>
-    <t>10.12.175.0</t>
-  </si>
-  <si>
-    <t>10.12.175.3</t>
-  </si>
-  <si>
-    <t>10.12.176.0</t>
-  </si>
-  <si>
-    <t>10.12.176.3</t>
-  </si>
-  <si>
-    <t>10.12.148.0</t>
-  </si>
-  <si>
-    <t>10.12.148.3</t>
-  </si>
-  <si>
-    <t>192.168.226.0</t>
-  </si>
-  <si>
-    <t>192.168.226.3</t>
-  </si>
-  <si>
-    <t>192.168.227.0</t>
-  </si>
-  <si>
-    <t>192.168.227.3</t>
-  </si>
-  <si>
-    <t>192.168.228.0</t>
-  </si>
-  <si>
-    <t>192.168.228.3</t>
-  </si>
-  <si>
-    <t>192.168.229.0</t>
-  </si>
-  <si>
-    <t>192.168.229.3</t>
-  </si>
-  <si>
-    <t>10.12.228.192</t>
-  </si>
-  <si>
-    <t>10.12.228.254</t>
-  </si>
-  <si>
-    <t>10.12.221.192</t>
-  </si>
-  <si>
-    <t>10.12.221.254</t>
-  </si>
-  <si>
-    <t>10.12.236.0</t>
-  </si>
-  <si>
-    <t>10.12.236.62</t>
-  </si>
-  <si>
-    <t>10.12.215.192</t>
-  </si>
-  <si>
-    <t>10.12.215.254</t>
-  </si>
-  <si>
-    <t>10.12.236.128</t>
-  </si>
-  <si>
-    <t>10.12.236.190</t>
-  </si>
-  <si>
-    <t>10.1.16.192</t>
-  </si>
-  <si>
-    <t>10.1.16.199</t>
-  </si>
-  <si>
-    <t>10.12.170.0</t>
-  </si>
-  <si>
-    <t>10.12.170.126</t>
-  </si>
-  <si>
-    <t>10.12.177.128</t>
-  </si>
-  <si>
-    <t>10.12.177.254</t>
-  </si>
-  <si>
-    <t>10.12.165.0</t>
-  </si>
-  <si>
-    <t>10.12.165.126</t>
-  </si>
-  <si>
-    <t>10.12.170.128</t>
-  </si>
-  <si>
-    <t>10.12.170.254</t>
-  </si>
-  <si>
-    <t>10.12.177.0</t>
-  </si>
-  <si>
-    <t>10.12.177.126</t>
-  </si>
-  <si>
-    <t>10.12.165.128</t>
-  </si>
-  <si>
-    <t>10.12.165.254</t>
-  </si>
-  <si>
-    <t>10.12.231.0</t>
-  </si>
-  <si>
-    <t>10.12.231.126</t>
-  </si>
-  <si>
-    <t>10.12.233.128</t>
-  </si>
-  <si>
-    <t>10.12.233.254</t>
-  </si>
-  <si>
-    <t>10.12.102.0</t>
-  </si>
-  <si>
-    <t>10.12.102.3</t>
-  </si>
-  <si>
-    <t>91.216.121.192</t>
-  </si>
-  <si>
-    <t>/27</t>
-  </si>
-  <si>
-    <t>91.216.121.193</t>
-  </si>
-  <si>
-    <t>10.0.0.0</t>
-  </si>
-  <si>
-    <t>10.0.0.1</t>
-  </si>
-  <si>
-    <t>10.12.222.24</t>
-  </si>
-  <si>
-    <t>10.12.222.28</t>
-  </si>
-  <si>
-    <t>10.12.214.120</t>
-  </si>
-  <si>
-    <t>10.12.214.126</t>
-  </si>
-  <si>
-    <t>10.12.229.128</t>
-  </si>
-  <si>
-    <t>10.12.229.190</t>
-  </si>
-  <si>
-    <t>10.12.10.0</t>
-  </si>
-  <si>
-    <t>10.12.10.62</t>
-  </si>
-  <si>
-    <t>10.12.18.192</t>
-  </si>
-  <si>
-    <t>10.12.18.254</t>
-  </si>
-  <si>
-    <t>10.12.11.64</t>
-  </si>
-  <si>
-    <t>10.12.11.126</t>
-  </si>
-  <si>
-    <t>10.12.226.64</t>
-  </si>
-  <si>
-    <t>10.12.226.126</t>
-  </si>
-  <si>
-    <t>10.12.226.128</t>
-  </si>
-  <si>
-    <t>10.12.226.190</t>
-  </si>
-  <si>
-    <t>10.12.217.192</t>
-  </si>
-  <si>
-    <t>10.12.217.254</t>
-  </si>
-  <si>
-    <t>10.12.17.128</t>
-  </si>
-  <si>
-    <t>10.12.17.161</t>
-  </si>
-  <si>
-    <t>10.12.16.128</t>
-  </si>
-  <si>
-    <t>10.12.16.190</t>
-  </si>
-  <si>
-    <t>10.12.164.0</t>
-  </si>
-  <si>
-    <t>10.12.164.126</t>
-  </si>
-  <si>
-    <t>10.12.162.128</t>
-  </si>
-  <si>
-    <t>10.12.162.254</t>
-  </si>
-  <si>
-    <t>10.12.161.0</t>
-  </si>
-  <si>
-    <t>10.12.161.126</t>
-  </si>
-  <si>
-    <t>10.12.161.128</t>
-  </si>
-  <si>
-    <t>10.12.161.254</t>
-  </si>
-  <si>
-    <t>10.12.164.128</t>
-  </si>
-  <si>
-    <t>10.12.164.254</t>
-  </si>
-  <si>
-    <t>10.12.166.0</t>
-  </si>
-  <si>
-    <t>10.12.166.126</t>
-  </si>
-  <si>
-    <t>10.12.166.128</t>
-  </si>
-  <si>
-    <t>10.12.166.254</t>
-  </si>
-  <si>
-    <t>10.12.81.128</t>
-  </si>
-  <si>
-    <t>10.12.81.190</t>
-  </si>
-  <si>
-    <t>10.12.24.0</t>
-  </si>
-  <si>
-    <t>10.12.24.62</t>
-  </si>
-  <si>
-    <t>10.12.138.128</t>
-  </si>
-  <si>
-    <t>10.12.138.190</t>
-  </si>
-  <si>
-    <t>10.12.218.128</t>
-  </si>
-  <si>
-    <t>10.12.218.190</t>
-  </si>
-  <si>
-    <t>10.12.218.192</t>
-  </si>
-  <si>
-    <t>10.12.218.254</t>
-  </si>
-  <si>
-    <t>10.12.215.64</t>
-  </si>
-  <si>
-    <t>10.12.215.126</t>
-  </si>
-  <si>
-    <t>192.168.214.0</t>
-  </si>
-  <si>
-    <t>192.168.214.3</t>
-  </si>
-  <si>
-    <t>10.12.126.0</t>
-  </si>
-  <si>
-    <t>10.12.126.3</t>
-  </si>
-  <si>
-    <t>10.12.141.0</t>
-  </si>
-  <si>
-    <t>10.12.141.3</t>
-  </si>
-  <si>
-    <t>10.12.181.0</t>
-  </si>
-  <si>
-    <t>10.12.181.3</t>
-  </si>
-  <si>
-    <t>10.12.182.0</t>
-  </si>
-  <si>
-    <t>10.12.182.3</t>
-  </si>
-  <si>
-    <t>10.12.183.0</t>
-  </si>
-  <si>
-    <t>10.12.183.3</t>
-  </si>
-  <si>
-    <t>10.12.171.0</t>
-  </si>
-  <si>
-    <t>10.12.171.3</t>
-  </si>
-  <si>
-    <t>10.12.172.0</t>
-  </si>
-  <si>
-    <t>10.12.172.3</t>
-  </si>
-  <si>
-    <t>10.12.173.0</t>
-  </si>
-  <si>
-    <t>10.12.173.3</t>
-  </si>
-  <si>
-    <t>10.12.174.0</t>
-  </si>
-  <si>
-    <t>10.12.174.3</t>
-  </si>
-  <si>
-    <t>10.12.21.0</t>
-  </si>
-  <si>
-    <t>10.12.21.3</t>
-  </si>
-  <si>
-    <t>10.12.238.0</t>
-  </si>
-  <si>
-    <t>10.12.238.3</t>
-  </si>
-  <si>
-    <t>10.12.22.0</t>
-  </si>
-  <si>
-    <t>10.12.22.3</t>
-  </si>
-  <si>
-    <t>10.12.79.0</t>
-  </si>
-  <si>
-    <t>10.12.79.3</t>
-  </si>
-  <si>
-    <t>10.12.96.0</t>
-  </si>
-  <si>
-    <t>10.12.96.3</t>
+    <t>10.12.142.192</t>
+  </si>
+  <si>
+    <t>10.12.142.254</t>
+  </si>
+  <si>
+    <t>10.12.219.64</t>
+  </si>
+  <si>
+    <t>10.12.219.126</t>
+  </si>
+  <si>
+    <t>10.12.200.0</t>
+  </si>
+  <si>
+    <t>10.12.200.254</t>
+  </si>
+  <si>
+    <t>10.12.239.0</t>
+  </si>
+  <si>
+    <t>10.12.239.254</t>
+  </si>
+  <si>
+    <t>10.12.204.0</t>
+  </si>
+  <si>
+    <t>10.12.204.254</t>
   </si>
   <si>
     <t>192.168.163.0</t>
@@ -1099,177 +1634,6 @@
     <t>192.168.163.3</t>
   </si>
   <si>
-    <t>192.168.165.0</t>
-  </si>
-  <si>
-    <t>192.168.165.3</t>
-  </si>
-  <si>
-    <t>192.168.167.0</t>
-  </si>
-  <si>
-    <t>192.168.167.3</t>
-  </si>
-  <si>
-    <t>192.168.2.248</t>
-  </si>
-  <si>
-    <t>192.168.2.254</t>
-  </si>
-  <si>
-    <t>10.12.224.128</t>
-  </si>
-  <si>
-    <t>10.12.224.190</t>
-  </si>
-  <si>
-    <t>10.12.222.48</t>
-  </si>
-  <si>
-    <t>10.12.222.49</t>
-  </si>
-  <si>
-    <t>10.12.218.64</t>
-  </si>
-  <si>
-    <t>10.12.218.126</t>
-  </si>
-  <si>
-    <t>10.12.230.192</t>
-  </si>
-  <si>
-    <t>10.12.234.192</t>
-  </si>
-  <si>
-    <t>10.12.8.128</t>
-  </si>
-  <si>
-    <t>10.12.8.190</t>
-  </si>
-  <si>
-    <t>10.12.138.192</t>
-  </si>
-  <si>
-    <t>10.12.138.254</t>
-  </si>
-  <si>
-    <t>10.12.217.128</t>
-  </si>
-  <si>
-    <t>10.12.217.190</t>
-  </si>
-  <si>
-    <t>10.12.142.0</t>
-  </si>
-  <si>
-    <t>10.12.142.62</t>
-  </si>
-  <si>
-    <t>10.12.156.0</t>
-  </si>
-  <si>
-    <t>10.12.156.62</t>
-  </si>
-  <si>
-    <t>10.12.233.64</t>
-  </si>
-  <si>
-    <t>10.12.233.126</t>
-  </si>
-  <si>
-    <t>10.12.214.128</t>
-  </si>
-  <si>
-    <t>10.12.214.190</t>
-  </si>
-  <si>
-    <t>10.12.214.192</t>
-  </si>
-  <si>
-    <t>10.12.214.254</t>
-  </si>
-  <si>
-    <t>10.12.222.128</t>
-  </si>
-  <si>
-    <t>10.12.222.190</t>
-  </si>
-  <si>
-    <t>10.12.222.64</t>
-  </si>
-  <si>
-    <t>10.12.222.126</t>
-  </si>
-  <si>
-    <t>10.12.169.0</t>
-  </si>
-  <si>
-    <t>10.12.169.126</t>
-  </si>
-  <si>
-    <t>10.12.0.0</t>
-  </si>
-  <si>
-    <t>/23</t>
-  </si>
-  <si>
-    <t>10.12.0.247</t>
-  </si>
-  <si>
-    <t>10.12.18.128</t>
-  </si>
-  <si>
-    <t>10.12.18.190</t>
-  </si>
-  <si>
-    <t>10.12.19.64</t>
-  </si>
-  <si>
-    <t>10.12.19.126</t>
-  </si>
-  <si>
-    <t>10.12.10.128</t>
-  </si>
-  <si>
-    <t>10.12.10.190</t>
-  </si>
-  <si>
-    <t>10.12.81.0</t>
-  </si>
-  <si>
-    <t>10.12.81.62</t>
-  </si>
-  <si>
-    <t>10.12.19.0</t>
-  </si>
-  <si>
-    <t>10.12.19.62</t>
-  </si>
-  <si>
-    <t>10.12.81.64</t>
-  </si>
-  <si>
-    <t>10.12.81.126</t>
-  </si>
-  <si>
-    <t>10.12.11.192</t>
-  </si>
-  <si>
-    <t>10.12.11.254</t>
-  </si>
-  <si>
-    <t>10.12.20.0</t>
-  </si>
-  <si>
-    <t>10.12.20.62</t>
-  </si>
-  <si>
-    <t>10.12.23.0</t>
-  </si>
-  <si>
-    <t>10.12.23.62</t>
-  </si>
-  <si>
     <t>10.12.25.0</t>
   </si>
   <si>
@@ -1310,372 +1674,6 @@
   </si>
   <si>
     <t>10.12.237.3</t>
-  </si>
-  <si>
-    <t>10.12.87.0</t>
-  </si>
-  <si>
-    <t>10.12.87.3</t>
-  </si>
-  <si>
-    <t>10.12.80.0</t>
-  </si>
-  <si>
-    <t>10.12.80.3</t>
-  </si>
-  <si>
-    <t>10.12.91.0</t>
-  </si>
-  <si>
-    <t>10.12.91.3</t>
-  </si>
-  <si>
-    <t>10.12.160.0</t>
-  </si>
-  <si>
-    <t>10.12.160.126</t>
-  </si>
-  <si>
-    <t>10.12.160.128</t>
-  </si>
-  <si>
-    <t>10.12.160.254</t>
-  </si>
-  <si>
-    <t>10.12.163.0</t>
-  </si>
-  <si>
-    <t>10.12.163.126</t>
-  </si>
-  <si>
-    <t>10.12.163.128</t>
-  </si>
-  <si>
-    <t>10.12.163.254</t>
-  </si>
-  <si>
-    <t>10.12.168.0</t>
-  </si>
-  <si>
-    <t>10.12.168.126</t>
-  </si>
-  <si>
-    <t>172.16.0.0</t>
-  </si>
-  <si>
-    <t>172.16.65.3</t>
-  </si>
-  <si>
-    <t>10.12.142.128</t>
-  </si>
-  <si>
-    <t>10.12.142.190</t>
-  </si>
-  <si>
-    <t>10.12.8.0</t>
-  </si>
-  <si>
-    <t>10.12.8.62</t>
-  </si>
-  <si>
-    <t>10.12.10.192</t>
-  </si>
-  <si>
-    <t>10.12.10.254</t>
-  </si>
-  <si>
-    <t>10.12.185.0</t>
-  </si>
-  <si>
-    <t>10.12.185.62</t>
-  </si>
-  <si>
-    <t>10.12.224.192</t>
-  </si>
-  <si>
-    <t>10.12.224.254</t>
-  </si>
-  <si>
-    <t>91.216.121.240</t>
-  </si>
-  <si>
-    <t>91.216.121.242</t>
-  </si>
-  <si>
-    <t>185.13.0.140</t>
-  </si>
-  <si>
-    <t>185.13.0.142</t>
-  </si>
-  <si>
-    <t>10.12.222.56</t>
-  </si>
-  <si>
-    <t>10.12.222.57</t>
-  </si>
-  <si>
-    <t>10.12.100.192</t>
-  </si>
-  <si>
-    <t>10.12.100.254</t>
-  </si>
-  <si>
-    <t>10.12.225.192</t>
-  </si>
-  <si>
-    <t>10.12.225.254</t>
-  </si>
-  <si>
-    <t>10.12.192.0</t>
-  </si>
-  <si>
-    <t>10.12.192.62</t>
-  </si>
-  <si>
-    <t>10.12.192.64</t>
-  </si>
-  <si>
-    <t>10.12.192.126</t>
-  </si>
-  <si>
-    <t>10.12.115.0</t>
-  </si>
-  <si>
-    <t>10.12.115.62</t>
-  </si>
-  <si>
-    <t>10.12.115.64</t>
-  </si>
-  <si>
-    <t>10.12.115.126</t>
-  </si>
-  <si>
-    <t>10.12.115.128</t>
-  </si>
-  <si>
-    <t>10.12.115.190</t>
-  </si>
-  <si>
-    <t>10.12.115.192</t>
-  </si>
-  <si>
-    <t>10.12.115.254</t>
-  </si>
-  <si>
-    <t>10.12.239.0</t>
-  </si>
-  <si>
-    <t>10.12.239.254</t>
-  </si>
-  <si>
-    <t>10.12.204.0</t>
-  </si>
-  <si>
-    <t>10.12.204.254</t>
-  </si>
-  <si>
-    <t>10.12.116.0</t>
-  </si>
-  <si>
-    <t>10.12.116.254</t>
-  </si>
-  <si>
-    <t>10.12.118.0</t>
-  </si>
-  <si>
-    <t>10.12.118.254</t>
-  </si>
-  <si>
-    <t>217.117.187.0</t>
-  </si>
-  <si>
-    <t>217.117.187.30</t>
-  </si>
-  <si>
-    <t>10.12.114.0</t>
-  </si>
-  <si>
-    <t>10.12.114.254</t>
-  </si>
-  <si>
-    <t>10.12.16.96</t>
-  </si>
-  <si>
-    <t>10.12.16.110</t>
-  </si>
-  <si>
-    <t>10.12.221.64</t>
-  </si>
-  <si>
-    <t>10.12.221.78</t>
-  </si>
-  <si>
-    <t>10.12.68.0</t>
-  </si>
-  <si>
-    <t>10.12.68.3</t>
-  </si>
-  <si>
-    <t>10.12.69.0</t>
-  </si>
-  <si>
-    <t>10.12.69.3</t>
-  </si>
-  <si>
-    <t>10.12.71.0</t>
-  </si>
-  <si>
-    <t>10.12.71.3</t>
-  </si>
-  <si>
-    <t>10.12.72.0</t>
-  </si>
-  <si>
-    <t>10.12.72.3</t>
-  </si>
-  <si>
-    <t>10.12.73.0</t>
-  </si>
-  <si>
-    <t>10.12.73.3</t>
-  </si>
-  <si>
-    <t>10.12.184.0</t>
-  </si>
-  <si>
-    <t>10.12.184.3</t>
-  </si>
-  <si>
-    <t>10.12.127.0</t>
-  </si>
-  <si>
-    <t>10.12.127.3</t>
-  </si>
-  <si>
-    <t>192.168.10.0</t>
-  </si>
-  <si>
-    <t>192.168.10.3</t>
-  </si>
-  <si>
-    <t>10.12.155.0</t>
-  </si>
-  <si>
-    <t>10.12.155.3</t>
-  </si>
-  <si>
-    <t>10.12.143.0</t>
-  </si>
-  <si>
-    <t>10.12.143.3</t>
-  </si>
-  <si>
-    <t>10.12.119.0</t>
-  </si>
-  <si>
-    <t>10.12.119.3</t>
-  </si>
-  <si>
-    <t>10.12.142.192</t>
-  </si>
-  <si>
-    <t>10.12.142.254</t>
-  </si>
-  <si>
-    <t>10.12.219.64</t>
-  </si>
-  <si>
-    <t>10.12.219.126</t>
-  </si>
-  <si>
-    <t>10.12.219.0</t>
-  </si>
-  <si>
-    <t>10.12.219.62</t>
-  </si>
-  <si>
-    <t>10.12.232.64</t>
-  </si>
-  <si>
-    <t>10.12.232.126</t>
-  </si>
-  <si>
-    <t>10.12.232.128</t>
-  </si>
-  <si>
-    <t>10.12.232.190</t>
-  </si>
-  <si>
-    <t>10.12.232.0</t>
-  </si>
-  <si>
-    <t>10.12.232.62</t>
-  </si>
-  <si>
-    <t>10.12.216.0</t>
-  </si>
-  <si>
-    <t>10.12.216.62</t>
-  </si>
-  <si>
-    <t>10.12.200.0</t>
-  </si>
-  <si>
-    <t>10.12.200.254</t>
-  </si>
-  <si>
-    <t>217.150.41.204</t>
-  </si>
-  <si>
-    <t>217.150.41.205</t>
-  </si>
-  <si>
-    <t>10.12.231.168</t>
-  </si>
-  <si>
-    <t>10.12.231.174</t>
-  </si>
-  <si>
-    <t>10.12.78.0</t>
-  </si>
-  <si>
-    <t>10.12.78.3</t>
-  </si>
-  <si>
-    <t>10.12.77.0</t>
-  </si>
-  <si>
-    <t>10.12.77.3</t>
-  </si>
-  <si>
-    <t>10.12.94.0</t>
-  </si>
-  <si>
-    <t>10.12.94.3</t>
-  </si>
-  <si>
-    <t>10.12.13.0</t>
-  </si>
-  <si>
-    <t>10.12.13.3</t>
-  </si>
-  <si>
-    <t>10.12.95.0</t>
-  </si>
-  <si>
-    <t>10.12.95.3</t>
-  </si>
-  <si>
-    <t>10.12.222.16</t>
-  </si>
-  <si>
-    <t>10.12.222.22</t>
-  </si>
-  <si>
-    <t>10.12.231.184</t>
-  </si>
-  <si>
-    <t>10.12.231.190</t>
   </si>
   <si>
     <t>10.72.16.0</t>
@@ -2017,7 +2015,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C274"/>
+  <dimension ref="A1:C273"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2338,40 +2336,40 @@
         <v>59</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="C30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="C31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C32" t="s">
         <v>67</v>
@@ -2382,7 +2380,7 @@
         <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="C33" t="s">
         <v>69</v>
@@ -2393,7 +2391,7 @@
         <v>70</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="C34" t="s">
         <v>71</v>
@@ -2404,40 +2402,40 @@
         <v>72</v>
       </c>
       <c r="B35" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C35" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B36" t="s">
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B37" t="s">
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B38" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="C38" t="s">
         <v>80</v>
@@ -2646,7 +2644,7 @@
         <v>119</v>
       </c>
       <c r="B57" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="C57" t="s">
         <v>120</v>
@@ -2657,7 +2655,7 @@
         <v>121</v>
       </c>
       <c r="B58" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="C58" t="s">
         <v>122</v>
@@ -2668,7 +2666,7 @@
         <v>123</v>
       </c>
       <c r="B59" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C59" t="s">
         <v>124</v>
@@ -2679,7 +2677,7 @@
         <v>125</v>
       </c>
       <c r="B60" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="C60" t="s">
         <v>126</v>
@@ -2690,7 +2688,7 @@
         <v>127</v>
       </c>
       <c r="B61" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C61" t="s">
         <v>128</v>
@@ -2701,7 +2699,7 @@
         <v>129</v>
       </c>
       <c r="B62" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C62" t="s">
         <v>130</v>
@@ -2712,7 +2710,7 @@
         <v>131</v>
       </c>
       <c r="B63" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C63" t="s">
         <v>132</v>
@@ -2723,7 +2721,7 @@
         <v>133</v>
       </c>
       <c r="B64" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C64" t="s">
         <v>134</v>
@@ -2734,7 +2732,7 @@
         <v>135</v>
       </c>
       <c r="B65" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C65" t="s">
         <v>136</v>
@@ -2745,7 +2743,7 @@
         <v>137</v>
       </c>
       <c r="B66" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="C66" t="s">
         <v>138</v>
@@ -3097,414 +3095,414 @@
         <v>201</v>
       </c>
       <c r="B98" t="s">
-        <v>101</v>
+        <v>202</v>
       </c>
       <c r="C98" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B99" t="s">
         <v>4</v>
       </c>
       <c r="C99" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B100" t="s">
         <v>4</v>
       </c>
       <c r="C100" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B101" t="s">
         <v>4</v>
       </c>
       <c r="C101" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B102" t="s">
         <v>4</v>
       </c>
       <c r="C102" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B103" t="s">
         <v>4</v>
       </c>
       <c r="C103" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B104" t="s">
-        <v>4</v>
+        <v>215</v>
       </c>
       <c r="C104" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B105" t="s">
-        <v>4</v>
+        <v>101</v>
       </c>
       <c r="C105" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B106" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="C106" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B107" t="s">
         <v>4</v>
       </c>
       <c r="C107" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B108" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C108" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B109" t="s">
-        <v>224</v>
+        <v>4</v>
       </c>
       <c r="C109" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B110" t="s">
-        <v>101</v>
+        <v>4</v>
       </c>
       <c r="C110" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B111" t="s">
-        <v>101</v>
+        <v>4</v>
       </c>
       <c r="C111" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B112" t="s">
-        <v>79</v>
+        <v>4</v>
       </c>
       <c r="C112" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B113" t="s">
         <v>4</v>
       </c>
       <c r="C113" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B114" t="s">
         <v>4</v>
       </c>
       <c r="C114" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B115" t="s">
         <v>4</v>
       </c>
       <c r="C115" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B116" t="s">
         <v>4</v>
       </c>
       <c r="C116" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B117" t="s">
         <v>4</v>
       </c>
       <c r="C117" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B118" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C118" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B119" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="C119" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B120" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="C120" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B121" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C121" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B122" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C122" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B123" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C123" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B124" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="C124" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B125" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="C125" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B126" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="C126" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B127" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="C127" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B128" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="C128" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B129" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="C129" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B130" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="C130" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B131" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="C131" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B132" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="C132" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B133" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="C133" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B134" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C134" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B135" t="s">
-        <v>277</v>
+        <v>11</v>
       </c>
       <c r="C135" t="s">
         <v>278</v>
@@ -3515,7 +3513,7 @@
         <v>279</v>
       </c>
       <c r="B136" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C136" t="s">
         <v>280</v>
@@ -3526,7 +3524,7 @@
         <v>281</v>
       </c>
       <c r="B137" t="s">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="C137" t="s">
         <v>282</v>
@@ -3537,7 +3535,7 @@
         <v>283</v>
       </c>
       <c r="B138" t="s">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="C138" t="s">
         <v>284</v>
@@ -3570,7 +3568,7 @@
         <v>289</v>
       </c>
       <c r="B141" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="C141" t="s">
         <v>290</v>
@@ -3581,7 +3579,7 @@
         <v>291</v>
       </c>
       <c r="B142" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="C142" t="s">
         <v>292</v>
@@ -3592,7 +3590,7 @@
         <v>293</v>
       </c>
       <c r="B143" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="C143" t="s">
         <v>294</v>
@@ -3603,7 +3601,7 @@
         <v>295</v>
       </c>
       <c r="B144" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="C144" t="s">
         <v>296</v>
@@ -3614,7 +3612,7 @@
         <v>297</v>
       </c>
       <c r="B145" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="C145" t="s">
         <v>298</v>
@@ -3625,7 +3623,7 @@
         <v>299</v>
       </c>
       <c r="B146" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="C146" t="s">
         <v>300</v>
@@ -3636,7 +3634,7 @@
         <v>301</v>
       </c>
       <c r="B147" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="C147" t="s">
         <v>302</v>
@@ -3647,7 +3645,7 @@
         <v>303</v>
       </c>
       <c r="B148" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C148" t="s">
         <v>304</v>
@@ -3658,7 +3656,7 @@
         <v>305</v>
       </c>
       <c r="B149" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C149" t="s">
         <v>306</v>
@@ -3669,7 +3667,7 @@
         <v>307</v>
       </c>
       <c r="B150" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="C150" t="s">
         <v>308</v>
@@ -3680,7 +3678,7 @@
         <v>309</v>
       </c>
       <c r="B151" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="C151" t="s">
         <v>310</v>
@@ -3691,7 +3689,7 @@
         <v>311</v>
       </c>
       <c r="B152" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="C152" t="s">
         <v>312</v>
@@ -3702,7 +3700,7 @@
         <v>313</v>
       </c>
       <c r="B153" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="C153" t="s">
         <v>314</v>
@@ -3713,7 +3711,7 @@
         <v>315</v>
       </c>
       <c r="B154" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="C154" t="s">
         <v>316</v>
@@ -3757,7 +3755,7 @@
         <v>323</v>
       </c>
       <c r="B158" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C158" t="s">
         <v>324</v>
@@ -3768,7 +3766,7 @@
         <v>325</v>
       </c>
       <c r="B159" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C159" t="s">
         <v>326</v>
@@ -3779,7 +3777,7 @@
         <v>327</v>
       </c>
       <c r="B160" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C160" t="s">
         <v>328</v>
@@ -3933,7 +3931,7 @@
         <v>355</v>
       </c>
       <c r="B174" t="s">
-        <v>4</v>
+        <v>101</v>
       </c>
       <c r="C174" t="s">
         <v>356</v>
@@ -3944,7 +3942,7 @@
         <v>357</v>
       </c>
       <c r="B175" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C175" t="s">
         <v>358</v>
@@ -3955,87 +3953,87 @@
         <v>359</v>
       </c>
       <c r="B176" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C176" t="s">
-        <v>360</v>
+        <v>220</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
+        <v>360</v>
+      </c>
+      <c r="B177" t="s">
+        <v>11</v>
+      </c>
+      <c r="C177" t="s">
         <v>361</v>
-      </c>
-      <c r="B177" t="s">
-        <v>4</v>
-      </c>
-      <c r="C177" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
+        <v>362</v>
+      </c>
+      <c r="B178" t="s">
+        <v>11</v>
+      </c>
+      <c r="C178" t="s">
         <v>363</v>
-      </c>
-      <c r="B178" t="s">
-        <v>4</v>
-      </c>
-      <c r="C178" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
+        <v>364</v>
+      </c>
+      <c r="B179" t="s">
+        <v>11</v>
+      </c>
+      <c r="C179" t="s">
         <v>365</v>
-      </c>
-      <c r="B179" t="s">
-        <v>101</v>
-      </c>
-      <c r="C179" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
+        <v>366</v>
+      </c>
+      <c r="B180" t="s">
+        <v>11</v>
+      </c>
+      <c r="C180" t="s">
         <v>367</v>
-      </c>
-      <c r="B180" t="s">
-        <v>11</v>
-      </c>
-      <c r="C180" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
+        <v>368</v>
+      </c>
+      <c r="B181" t="s">
+        <v>11</v>
+      </c>
+      <c r="C181" t="s">
         <v>369</v>
-      </c>
-      <c r="B181" t="s">
-        <v>101</v>
-      </c>
-      <c r="C181" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
+        <v>370</v>
+      </c>
+      <c r="B182" t="s">
+        <v>11</v>
+      </c>
+      <c r="C182" t="s">
         <v>371</v>
-      </c>
-      <c r="B182" t="s">
-        <v>11</v>
-      </c>
-      <c r="C182" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
+        <v>372</v>
+      </c>
+      <c r="B183" t="s">
+        <v>11</v>
+      </c>
+      <c r="C183" t="s">
         <v>373</v>
-      </c>
-      <c r="B183" t="s">
-        <v>11</v>
-      </c>
-      <c r="C183" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -4046,136 +4044,136 @@
         <v>11</v>
       </c>
       <c r="C184" t="s">
-        <v>80</v>
+        <v>375</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B185" t="s">
         <v>11</v>
       </c>
       <c r="C185" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B186" t="s">
         <v>11</v>
       </c>
       <c r="C186" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B187" t="s">
         <v>11</v>
       </c>
       <c r="C187" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B188" t="s">
         <v>11</v>
       </c>
       <c r="C188" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B189" t="s">
         <v>11</v>
       </c>
       <c r="C189" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B190" t="s">
         <v>11</v>
       </c>
       <c r="C190" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B191" t="s">
         <v>11</v>
       </c>
       <c r="C191" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B192" t="s">
         <v>11</v>
       </c>
       <c r="C192" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B193" t="s">
         <v>11</v>
       </c>
       <c r="C193" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B194" t="s">
         <v>11</v>
       </c>
       <c r="C194" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B195" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="C195" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B196" t="s">
-        <v>398</v>
+        <v>11</v>
       </c>
       <c r="C196" t="s">
         <v>399</v>
@@ -4197,7 +4195,7 @@
         <v>402</v>
       </c>
       <c r="B198" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="C198" t="s">
         <v>403</v>
@@ -4208,7 +4206,7 @@
         <v>404</v>
       </c>
       <c r="B199" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="C199" t="s">
         <v>405</v>
@@ -4219,7 +4217,7 @@
         <v>406</v>
       </c>
       <c r="B200" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="C200" t="s">
         <v>407</v>
@@ -4230,7 +4228,7 @@
         <v>408</v>
       </c>
       <c r="B201" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="C201" t="s">
         <v>409</v>
@@ -4241,7 +4239,7 @@
         <v>410</v>
       </c>
       <c r="B202" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="C202" t="s">
         <v>411</v>
@@ -4252,7 +4250,7 @@
         <v>412</v>
       </c>
       <c r="B203" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="C203" t="s">
         <v>413</v>
@@ -4263,7 +4261,7 @@
         <v>414</v>
       </c>
       <c r="B204" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="C204" t="s">
         <v>415</v>
@@ -4274,7 +4272,7 @@
         <v>416</v>
       </c>
       <c r="B205" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="C205" t="s">
         <v>417</v>
@@ -4285,7 +4283,7 @@
         <v>418</v>
       </c>
       <c r="B206" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="C206" t="s">
         <v>419</v>
@@ -4296,7 +4294,7 @@
         <v>420</v>
       </c>
       <c r="B207" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="C207" t="s">
         <v>421</v>
@@ -4307,736 +4305,725 @@
         <v>422</v>
       </c>
       <c r="B208" t="s">
-        <v>4</v>
+        <v>423</v>
       </c>
       <c r="C208" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B209" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C209" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B210" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C210" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B211" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C211" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B212" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C212" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B213" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C213" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B214" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C214" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B215" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C215" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B216" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="C216" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B217" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="C217" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B218" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="C218" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B219" t="s">
-        <v>79</v>
+        <v>4</v>
       </c>
       <c r="C219" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B220" t="s">
-        <v>79</v>
+        <v>4</v>
       </c>
       <c r="C220" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B221" t="s">
-        <v>224</v>
+        <v>101</v>
       </c>
       <c r="C221" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B222" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C222" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B223" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="C223" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B224" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="C224" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B225" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C225" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B226" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C226" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B227" t="s">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="C227" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B228" t="s">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="C228" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B229" t="s">
-        <v>101</v>
+        <v>4</v>
       </c>
       <c r="C229" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B230" t="s">
-        <v>11</v>
+        <v>215</v>
       </c>
       <c r="C230" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B231" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="C231" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B232" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="C232" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B233" t="s">
         <v>11</v>
       </c>
       <c r="C233" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B234" t="s">
         <v>11</v>
       </c>
       <c r="C234" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B235" t="s">
         <v>11</v>
       </c>
       <c r="C235" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B236" t="s">
         <v>11</v>
       </c>
       <c r="C236" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B237" t="s">
         <v>11</v>
       </c>
       <c r="C237" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B238" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C238" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B239" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C239" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B240" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C240" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B241" t="s">
         <v>4</v>
       </c>
       <c r="C241" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B242" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C242" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B243" t="s">
         <v>4</v>
       </c>
       <c r="C243" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B244" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="C244" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B245" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C245" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B246" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="C246" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B247" t="s">
         <v>4</v>
       </c>
       <c r="C247" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B248" t="s">
         <v>4</v>
       </c>
       <c r="C248" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B249" t="s">
         <v>4</v>
       </c>
       <c r="C249" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B250" t="s">
         <v>4</v>
       </c>
       <c r="C250" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B251" t="s">
         <v>4</v>
       </c>
       <c r="C251" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B252" t="s">
         <v>4</v>
       </c>
       <c r="C252" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B253" t="s">
         <v>4</v>
       </c>
       <c r="C253" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B254" t="s">
         <v>4</v>
       </c>
       <c r="C254" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B255" t="s">
         <v>4</v>
       </c>
       <c r="C255" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B256" t="s">
         <v>4</v>
       </c>
       <c r="C256" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B257" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C257" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B258" t="s">
         <v>11</v>
       </c>
       <c r="C258" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B259" t="s">
         <v>11</v>
       </c>
       <c r="C259" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B260" t="s">
         <v>11</v>
       </c>
       <c r="C260" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B261" t="s">
         <v>11</v>
       </c>
       <c r="C261" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B262" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C262" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B263" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C263" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B264" t="s">
         <v>4</v>
       </c>
       <c r="C264" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B265" t="s">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="C265" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B266" t="s">
-        <v>101</v>
+        <v>4</v>
       </c>
       <c r="C266" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B267" t="s">
         <v>4</v>
       </c>
       <c r="C267" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B268" t="s">
         <v>4</v>
       </c>
       <c r="C268" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B269" t="s">
         <v>4</v>
       </c>
       <c r="C269" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B270" t="s">
         <v>4</v>
       </c>
       <c r="C270" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B271" t="s">
         <v>4</v>
       </c>
       <c r="C271" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B272" t="s">
-        <v>101</v>
+        <v>4</v>
       </c>
       <c r="C272" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B273" t="s">
-        <v>101</v>
+        <v>423</v>
       </c>
       <c r="C273" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3">
-      <c r="A274" t="s">
         <v>554</v>
-      </c>
-      <c r="B274" t="s">
-        <v>398</v>
-      </c>
-      <c r="C274" t="s">
-        <v>555</v>
       </c>
     </row>
   </sheetData>
